--- a/Report.xlsx
+++ b/Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcjct\Downloads\Documents\ManufacturingExpenseAutomation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcjct\Downloads\Documents\Manufacturing-Expense-Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F663C939-B624-49A3-8FCF-55081E337A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33B3833-DD86-41E5-8922-61C6CE71659F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2C61E6E9-2155-469F-8CB6-FAB397B3F7CC}"/>
+    <workbookView xWindow="5115" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{2C61E6E9-2155-469F-8CB6-FAB397B3F7CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -406,9 +406,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -440,6 +437,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency 2" xfId="1" xr:uid="{6F2C0F2D-31A9-43B9-8EC7-FF8DB1607B16}"/>
@@ -790,102 +790,102 @@
       <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="H2" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="14"/>
+      <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="15" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="15" t="s">
         <v>16</v>
       </c>
       <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="H5" s="17"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="H5" s="16"/>
       <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="20">
-        <v>0</v>
-      </c>
-      <c r="D6" s="20">
-        <v>0</v>
-      </c>
-      <c r="E6" s="20">
+      <c r="C6" s="19">
+        <v>0</v>
+      </c>
+      <c r="D6" s="19">
+        <v>0</v>
+      </c>
+      <c r="E6" s="19">
         <f t="shared" ref="E6:E37" si="0">C6+D6</f>
         <v>0</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="19">
         <f t="shared" ref="F6:F37" si="1">H6*I6/1000</f>
         <v>0</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="20">
         <f t="shared" ref="G6:G37" si="2">IFERROR(F6/E6,0)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="21">
         <v>0</v>
       </c>
       <c r="I6" s="6">
@@ -893,31 +893,31 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="20">
-        <v>0</v>
-      </c>
-      <c r="D7" s="20">
-        <v>0</v>
-      </c>
-      <c r="E7" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="22">
+      <c r="C7" s="19">
+        <v>0</v>
+      </c>
+      <c r="D7" s="19">
+        <v>0</v>
+      </c>
+      <c r="E7" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="21">
         <v>0</v>
       </c>
       <c r="I7" s="6">
@@ -925,31 +925,31 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="18">
         <v>5500</v>
       </c>
-      <c r="C8" s="20">
-        <v>0</v>
-      </c>
-      <c r="D8" s="20">
-        <v>0</v>
-      </c>
-      <c r="E8" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="22">
+      <c r="C8" s="19">
+        <v>0</v>
+      </c>
+      <c r="D8" s="19">
+        <v>0</v>
+      </c>
+      <c r="E8" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="21">
         <v>0</v>
       </c>
       <c r="I8" s="6">
@@ -957,31 +957,31 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="20">
-        <v>0</v>
-      </c>
-      <c r="D9" s="20">
-        <v>0</v>
-      </c>
-      <c r="E9" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="22">
+      <c r="C9" s="19">
+        <v>0</v>
+      </c>
+      <c r="D9" s="19">
+        <v>0</v>
+      </c>
+      <c r="E9" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="21">
         <v>0</v>
       </c>
       <c r="I9" s="6">
@@ -989,31 +989,31 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="20">
-        <v>0</v>
-      </c>
-      <c r="D10" s="20">
-        <v>0</v>
-      </c>
-      <c r="E10" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="22">
+      <c r="C10" s="19">
+        <v>0</v>
+      </c>
+      <c r="D10" s="19">
+        <v>0</v>
+      </c>
+      <c r="E10" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="21">
         <v>0</v>
       </c>
       <c r="I10" s="6">
@@ -1024,31 +1024,31 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="20">
-        <v>0</v>
-      </c>
-      <c r="D11" s="20">
-        <v>0</v>
-      </c>
-      <c r="E11" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="22">
+      <c r="C11" s="19">
+        <v>0</v>
+      </c>
+      <c r="D11" s="19">
+        <v>0</v>
+      </c>
+      <c r="E11" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="21">
         <v>0</v>
       </c>
       <c r="I11" s="6">
@@ -1059,31 +1059,31 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="18">
         <v>5100</v>
       </c>
-      <c r="C12" s="20">
-        <v>0</v>
-      </c>
-      <c r="D12" s="20">
-        <v>0</v>
-      </c>
-      <c r="E12" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="22">
+      <c r="C12" s="19">
+        <v>0</v>
+      </c>
+      <c r="D12" s="19">
+        <v>0</v>
+      </c>
+      <c r="E12" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="21">
         <v>0</v>
       </c>
       <c r="I12" s="6">
@@ -1091,31 +1091,31 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="18">
         <v>5015</v>
       </c>
-      <c r="C13" s="20">
-        <v>0</v>
-      </c>
-      <c r="D13" s="20">
-        <v>0</v>
-      </c>
-      <c r="E13" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="22">
+      <c r="C13" s="19">
+        <v>0</v>
+      </c>
+      <c r="D13" s="19">
+        <v>0</v>
+      </c>
+      <c r="E13" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="21">
         <v>0</v>
       </c>
       <c r="I13" s="6">
@@ -1123,31 +1123,31 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="20">
-        <v>0</v>
-      </c>
-      <c r="D14" s="20">
-        <v>0</v>
-      </c>
-      <c r="E14" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="22">
+      <c r="C14" s="19">
+        <v>0</v>
+      </c>
+      <c r="D14" s="19">
+        <v>0</v>
+      </c>
+      <c r="E14" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="21">
         <v>0</v>
       </c>
       <c r="I14" s="6">
@@ -1155,31 +1155,31 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="20">
-        <v>0</v>
-      </c>
-      <c r="D15" s="20">
-        <v>0</v>
-      </c>
-      <c r="E15" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="22">
+      <c r="C15" s="19">
+        <v>0</v>
+      </c>
+      <c r="D15" s="19">
+        <v>0</v>
+      </c>
+      <c r="E15" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="21">
         <v>0</v>
       </c>
       <c r="I15" s="6">
@@ -1187,31 +1187,31 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="18">
         <v>5910</v>
       </c>
-      <c r="C16" s="20">
-        <v>0</v>
-      </c>
-      <c r="D16" s="20">
-        <v>0</v>
-      </c>
-      <c r="E16" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="22">
+      <c r="C16" s="19">
+        <v>0</v>
+      </c>
+      <c r="D16" s="19">
+        <v>0</v>
+      </c>
+      <c r="E16" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="21">
         <v>0</v>
       </c>
       <c r="I16" s="6">
@@ -1219,31 +1219,31 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="20">
-        <v>0</v>
-      </c>
-      <c r="D17" s="20">
-        <v>0</v>
-      </c>
-      <c r="E17" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="22">
+      <c r="C17" s="19">
+        <v>0</v>
+      </c>
+      <c r="D17" s="19">
+        <v>0</v>
+      </c>
+      <c r="E17" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="21">
         <v>0</v>
       </c>
       <c r="I17" s="6">
@@ -1254,31 +1254,31 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="18">
         <v>5010</v>
       </c>
-      <c r="C18" s="20">
-        <v>0</v>
-      </c>
-      <c r="D18" s="20">
-        <v>0</v>
-      </c>
-      <c r="E18" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="22">
+      <c r="C18" s="19">
+        <v>0</v>
+      </c>
+      <c r="D18" s="19">
+        <v>0</v>
+      </c>
+      <c r="E18" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="21">
         <v>0</v>
       </c>
       <c r="I18" s="6">
@@ -1286,31 +1286,31 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="20">
-        <v>0</v>
-      </c>
-      <c r="D19" s="20">
-        <v>0</v>
-      </c>
-      <c r="E19" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="22">
+      <c r="C19" s="19">
+        <v>0</v>
+      </c>
+      <c r="D19" s="19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="21">
         <v>0</v>
       </c>
       <c r="I19" s="6">
@@ -1318,31 +1318,31 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="18">
         <v>5360</v>
       </c>
-      <c r="C20" s="20">
-        <v>0</v>
-      </c>
-      <c r="D20" s="20">
-        <v>0</v>
-      </c>
-      <c r="E20" s="20">
+      <c r="C20" s="19">
+        <v>0</v>
+      </c>
+      <c r="D20" s="19">
+        <v>0</v>
+      </c>
+      <c r="E20" s="19">
         <f>C20+D20</f>
         <v>0</v>
       </c>
-      <c r="F20" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="22">
+      <c r="F20" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="21">
         <v>0</v>
       </c>
       <c r="I20" s="6">
@@ -1350,31 +1350,31 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="18">
         <v>5350</v>
       </c>
-      <c r="C21" s="20">
-        <v>0</v>
-      </c>
-      <c r="D21" s="20">
-        <v>0</v>
-      </c>
-      <c r="E21" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="22">
+      <c r="C21" s="19">
+        <v>0</v>
+      </c>
+      <c r="D21" s="19">
+        <v>0</v>
+      </c>
+      <c r="E21" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="21">
         <v>0</v>
       </c>
       <c r="I21" s="6">
@@ -1382,31 +1382,31 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="18">
         <v>5530</v>
       </c>
-      <c r="C22" s="20">
-        <v>0</v>
-      </c>
-      <c r="D22" s="20">
-        <v>0</v>
-      </c>
-      <c r="E22" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="22">
+      <c r="C22" s="19">
+        <v>0</v>
+      </c>
+      <c r="D22" s="19">
+        <v>0</v>
+      </c>
+      <c r="E22" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="21">
         <v>0</v>
       </c>
       <c r="I22" s="6">
@@ -1414,31 +1414,31 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="18">
         <v>5497</v>
       </c>
-      <c r="C23" s="20">
-        <v>0</v>
-      </c>
-      <c r="D23" s="20">
-        <v>0</v>
-      </c>
-      <c r="E23" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="22">
+      <c r="C23" s="19">
+        <v>0</v>
+      </c>
+      <c r="D23" s="19">
+        <v>0</v>
+      </c>
+      <c r="E23" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="21">
         <v>0</v>
       </c>
       <c r="I23" s="6">
@@ -1446,31 +1446,31 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="18">
         <v>5550</v>
       </c>
-      <c r="C24" s="20">
-        <v>0</v>
-      </c>
-      <c r="D24" s="20">
-        <v>0</v>
-      </c>
-      <c r="E24" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="22">
+      <c r="C24" s="19">
+        <v>0</v>
+      </c>
+      <c r="D24" s="19">
+        <v>0</v>
+      </c>
+      <c r="E24" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="21">
         <v>0</v>
       </c>
       <c r="I24" s="6">
@@ -1478,31 +1478,31 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B25" s="18">
         <v>5570</v>
       </c>
-      <c r="C25" s="20">
-        <v>0</v>
-      </c>
-      <c r="D25" s="20">
-        <v>0</v>
-      </c>
-      <c r="E25" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="22">
+      <c r="C25" s="19">
+        <v>0</v>
+      </c>
+      <c r="D25" s="19">
+        <v>0</v>
+      </c>
+      <c r="E25" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="21">
         <v>0</v>
       </c>
       <c r="I25" s="6">
@@ -1510,31 +1510,31 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="18">
         <v>5650</v>
       </c>
-      <c r="C26" s="20">
-        <v>0</v>
-      </c>
-      <c r="D26" s="20">
-        <v>0</v>
-      </c>
-      <c r="E26" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="22">
+      <c r="C26" s="19">
+        <v>0</v>
+      </c>
+      <c r="D26" s="19">
+        <v>0</v>
+      </c>
+      <c r="E26" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="21">
         <v>0</v>
       </c>
       <c r="I26" s="6">
@@ -1542,31 +1542,31 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="18">
         <v>5540</v>
       </c>
-      <c r="C27" s="20">
-        <v>0</v>
-      </c>
-      <c r="D27" s="20">
-        <v>0</v>
-      </c>
-      <c r="E27" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="22">
+      <c r="C27" s="19">
+        <v>0</v>
+      </c>
+      <c r="D27" s="19">
+        <v>0</v>
+      </c>
+      <c r="E27" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="21">
         <v>0</v>
       </c>
       <c r="I27" s="6">
@@ -1574,31 +1574,31 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28" s="18">
         <v>5580</v>
       </c>
-      <c r="C28" s="20">
-        <v>0</v>
-      </c>
-      <c r="D28" s="20">
-        <v>0</v>
-      </c>
-      <c r="E28" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H28" s="22">
+      <c r="C28" s="19">
+        <v>0</v>
+      </c>
+      <c r="D28" s="19">
+        <v>0</v>
+      </c>
+      <c r="E28" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="21">
         <v>0</v>
       </c>
       <c r="I28" s="6">
@@ -1606,31 +1606,31 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="19">
+      <c r="B29" s="18">
         <v>5980</v>
       </c>
-      <c r="C29" s="20">
-        <v>0</v>
-      </c>
-      <c r="D29" s="20">
-        <v>0</v>
-      </c>
-      <c r="E29" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="22">
+      <c r="C29" s="19">
+        <v>0</v>
+      </c>
+      <c r="D29" s="19">
+        <v>0</v>
+      </c>
+      <c r="E29" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="21">
         <v>0</v>
       </c>
       <c r="I29" s="6">
@@ -1638,31 +1638,31 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="19">
+      <c r="B30" s="18">
         <v>5494</v>
       </c>
-      <c r="C30" s="20">
-        <v>0</v>
-      </c>
-      <c r="D30" s="20">
-        <v>0</v>
-      </c>
-      <c r="E30" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="22">
+      <c r="C30" s="19">
+        <v>0</v>
+      </c>
+      <c r="D30" s="19">
+        <v>0</v>
+      </c>
+      <c r="E30" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="21">
         <v>0</v>
       </c>
       <c r="I30" s="6">
@@ -1670,31 +1670,31 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="19">
+      <c r="B31" s="18">
         <v>5030</v>
       </c>
-      <c r="C31" s="20">
-        <v>0</v>
-      </c>
-      <c r="D31" s="20">
-        <v>0</v>
-      </c>
-      <c r="E31" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="22">
+      <c r="C31" s="19">
+        <v>0</v>
+      </c>
+      <c r="D31" s="19">
+        <v>0</v>
+      </c>
+      <c r="E31" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="21">
         <v>0</v>
       </c>
       <c r="I31" s="6">
@@ -1702,31 +1702,31 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="19">
+      <c r="B32" s="18">
         <v>5040</v>
       </c>
-      <c r="C32" s="20">
-        <v>0</v>
-      </c>
-      <c r="D32" s="20">
-        <v>0</v>
-      </c>
-      <c r="E32" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="22">
+      <c r="C32" s="19">
+        <v>0</v>
+      </c>
+      <c r="D32" s="19">
+        <v>0</v>
+      </c>
+      <c r="E32" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="21">
         <v>0</v>
       </c>
       <c r="I32" s="6">
@@ -1734,31 +1734,31 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="19">
+      <c r="B33" s="18">
         <v>5080</v>
       </c>
-      <c r="C33" s="20">
-        <v>0</v>
-      </c>
-      <c r="D33" s="20">
-        <v>0</v>
-      </c>
-      <c r="E33" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="22">
+      <c r="C33" s="19">
+        <v>0</v>
+      </c>
+      <c r="D33" s="19">
+        <v>0</v>
+      </c>
+      <c r="E33" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="21">
         <v>0</v>
       </c>
       <c r="I33" s="6">
@@ -1766,31 +1766,31 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="19">
+      <c r="B34" s="18">
         <v>5110</v>
       </c>
-      <c r="C34" s="20">
-        <v>0</v>
-      </c>
-      <c r="D34" s="20">
-        <v>0</v>
-      </c>
-      <c r="E34" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H34" s="22">
+      <c r="C34" s="19">
+        <v>0</v>
+      </c>
+      <c r="D34" s="19">
+        <v>0</v>
+      </c>
+      <c r="E34" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="21">
         <v>0</v>
       </c>
       <c r="I34" s="6">
@@ -1798,31 +1798,31 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="19">
+      <c r="B35" s="18">
         <v>5125</v>
       </c>
-      <c r="C35" s="20">
-        <v>0</v>
-      </c>
-      <c r="D35" s="20">
-        <v>0</v>
-      </c>
-      <c r="E35" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H35" s="22">
+      <c r="C35" s="19">
+        <v>0</v>
+      </c>
+      <c r="D35" s="19">
+        <v>0</v>
+      </c>
+      <c r="E35" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="21">
         <v>0</v>
       </c>
       <c r="I35" s="6">
@@ -1830,31 +1830,31 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B36" s="19">
+      <c r="B36" s="18">
         <v>5510</v>
       </c>
-      <c r="C36" s="20">
-        <v>0</v>
-      </c>
-      <c r="D36" s="20">
-        <v>0</v>
-      </c>
-      <c r="E36" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H36" s="22">
+      <c r="C36" s="19">
+        <v>0</v>
+      </c>
+      <c r="D36" s="19">
+        <v>0</v>
+      </c>
+      <c r="E36" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="21">
         <v>0</v>
       </c>
       <c r="I36" s="6">
@@ -1862,31 +1862,31 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B37" s="19">
+      <c r="B37" s="18">
         <v>6060</v>
       </c>
-      <c r="C37" s="20">
-        <v>0</v>
-      </c>
-      <c r="D37" s="20">
-        <v>0</v>
-      </c>
-      <c r="E37" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F37" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G37" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H37" s="22">
+      <c r="C37" s="19">
+        <v>0</v>
+      </c>
+      <c r="D37" s="19">
+        <v>0</v>
+      </c>
+      <c r="E37" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="21">
         <v>0</v>
       </c>
       <c r="I37" s="6">
@@ -1894,29 +1894,29 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="23"/>
-      <c r="C38" s="20">
-        <v>0</v>
-      </c>
-      <c r="D38" s="20">
-        <v>0</v>
-      </c>
-      <c r="E38" s="20">
+      <c r="B38" s="22"/>
+      <c r="C38" s="19">
+        <v>0</v>
+      </c>
+      <c r="D38" s="19">
+        <v>0</v>
+      </c>
+      <c r="E38" s="19">
         <f>SUM(E6:E37)</f>
         <v>0</v>
       </c>
-      <c r="F38" s="20">
+      <c r="F38" s="19">
         <f>SUM(F6:F37)</f>
         <v>0</v>
       </c>
-      <c r="G38" s="21" t="e">
+      <c r="G38" s="20" t="e">
         <f>F38/E38</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="24">
+      <c r="H38" s="23">
         <f>SUM(H6:H37)</f>
         <v>0</v>
       </c>
